--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104628AC-504E-F54A-BD1A-A5ABB5FA09FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A075A5B-49DF-8F46-A3A0-5481F98BF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15640" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
@@ -750,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="164" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1548,6 +1548,48 @@
       <c r="I30" s="1" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A075A5B-49DF-8F46-A3A0-5481F98BF704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE2B5E-860D-9545-9169-0A0F4B052572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15640" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -381,6 +381,27 @@
   </si>
   <si>
     <t>102.8.50.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manama-kuwait wan is ipv6 </t>
+  </si>
+  <si>
+    <t>so change qatar-doha with manma-kuwait wan ip</t>
+  </si>
+  <si>
+    <t>ipv6</t>
+  </si>
+  <si>
+    <t>manama</t>
+  </si>
+  <si>
+    <t>kuwait city</t>
+  </si>
+  <si>
+    <t>wan= manama-kuwait</t>
   </si>
 </sst>
 </file>
@@ -752,13 +773,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="164" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -1549,20 +1570,43 @@
         <v>114</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADE2B5E-860D-9545-9169-0A0F4B052572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBE707-A769-467C-860E-1EAB4CFA410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15640" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -323,9 +323,6 @@
     <t>102.8.50.35</t>
   </si>
   <si>
-    <t>manama-kuwait city</t>
-  </si>
-  <si>
     <t>102.8.50.36</t>
   </si>
   <si>
@@ -372,15 +369,6 @@
   </si>
   <si>
     <t>qatar-doha</t>
-  </si>
-  <si>
-    <t>102.8.50.52</t>
-  </si>
-  <si>
-    <t>102.8.50.53 - 102.8.50.54</t>
-  </si>
-  <si>
-    <t>102.8.50.55</t>
   </si>
   <si>
     <t xml:space="preserve">notes: </t>
@@ -408,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,6 +413,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -449,12 +444,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -773,24 +771,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="164" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -848,7 +846,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -877,7 +875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,7 +904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -935,7 +933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -964,7 +962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -993,7 +991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1091,7 +1089,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1102,7 +1100,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1113,7 +1111,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1124,7 +1122,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1135,7 +1133,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1222,7 +1220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1309,9 +1307,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -1338,7 +1336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1367,7 +1365,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1396,7 +1394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>59</v>
@@ -1448,15 +1446,15 @@
         <v>60</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -1468,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>59</v>
@@ -1477,15 +1475,15 @@
         <v>60</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -1497,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>59</v>
@@ -1506,15 +1504,15 @@
         <v>60</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -1526,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>59</v>
@@ -1535,107 +1533,90 @@
         <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CBE707-A769-467C-860E-1EAB4CFA410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCAFA4-639D-5246-8FA7-F8438C6A81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="15640" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -390,13 +390,46 @@
   </si>
   <si>
     <t>wan= manama-kuwait</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>dns</t>
+  </si>
+  <si>
+    <t>web - gsp.com</t>
+  </si>
+  <si>
+    <t>10.160.10.115</t>
+  </si>
+  <si>
+    <t>10.160.10.116</t>
+  </si>
+  <si>
+    <t>10.160.10.117</t>
+  </si>
+  <si>
+    <t>10.160.10.118</t>
+  </si>
+  <si>
+    <t>10.160.10.119</t>
+  </si>
+  <si>
+    <t>email - gspmail.com</t>
+  </si>
+  <si>
+    <t>tftp - gsptftp</t>
+  </si>
+  <si>
+    <t>ftp - gspftp.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,6 +455,12 @@
       <color rgb="FF222222"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -771,24 +810,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="35.625" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -846,7 +885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -875,7 +914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -904,7 +943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -933,7 +972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -962,7 +1001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -991,7 +1030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1089,7 +1128,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1100,7 +1139,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1111,7 +1150,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1122,7 +1161,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1133,7 +1172,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1191,7 +1230,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1220,7 +1259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1249,7 +1288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1307,7 +1346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -1336,7 +1375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1365,7 +1404,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1394,7 +1433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1423,7 +1462,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1452,7 +1491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1481,7 +1520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -1510,7 +1549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -1539,7 +1578,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1550,72 +1589,114 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCAFA4-639D-5246-8FA7-F8438C6A81E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF96F0-33FC-5D4F-AFE8-ED2E43E208CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="15640" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -371,18 +371,6 @@
     <t>qatar-doha</t>
   </si>
   <si>
-    <t xml:space="preserve">notes: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">manama-kuwait wan is ipv6 </t>
-  </si>
-  <si>
-    <t>so change qatar-doha with manma-kuwait wan ip</t>
-  </si>
-  <si>
-    <t>ipv6</t>
-  </si>
-  <si>
     <t>manama</t>
   </si>
   <si>
@@ -423,6 +411,24 @@
   </si>
   <si>
     <t>ftp - gspftp.com</t>
+  </si>
+  <si>
+    <t>2007: C21A: 0DB8::</t>
+  </si>
+  <si>
+    <t>2007: C21A: 0DB8:: - 2007:C21A:0DB8::001F</t>
+  </si>
+  <si>
+    <t>2007: C21A: 0DB8:0001::</t>
+  </si>
+  <si>
+    <t>2007: C21A: 0DB8:0001:: - 2007:C21A:0DB8:0001::0007</t>
+  </si>
+  <si>
+    <t>20007:C21A:0DB8:0002::</t>
+  </si>
+  <si>
+    <t>20007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
   </si>
 </sst>
 </file>
@@ -810,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="116" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,8 +827,8 @@
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
@@ -1589,53 +1595,111 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B41" s="2">
+        <v>30</v>
+      </c>
+      <c r="C41" s="2">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="2">
+        <v>123</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B42" s="2">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="2">
+        <v>125</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="2">
+        <v>126</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>54</v>
@@ -1647,48 +1711,48 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C51" s="1"/>
     </row>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF96F0-33FC-5D4F-AFE8-ED2E43E208CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79E7EA9-A4BC-41CA-A796-FC6B7105BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="15420" yWindow="405" windowWidth="22860" windowHeight="20460" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
     <t>2007: C21A: 0DB8:0001:: - 2007:C21A:0DB8:0001::0007</t>
   </si>
   <si>
-    <t>20007:C21A:0DB8:0002::</t>
-  </si>
-  <si>
     <t>20007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
+  </si>
+  <si>
+    <t>2007:C21A:0DB8:0002::</t>
   </si>
 </sst>
 </file>
@@ -816,24 +816,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="116" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -920,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1134,7 +1134,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1145,7 +1145,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1156,7 +1156,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1167,7 +1167,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1178,7 +1178,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1595,10 +1595,10 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -1682,22 +1682,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F43" s="2">
         <v>126</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
   </sheetData>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79E7EA9-A4BC-41CA-A796-FC6B7105BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71236911-DF5E-4EB2-A4B1-C07A87DD1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="405" windowWidth="22860" windowHeight="20460" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
     <t>2007: C21A: 0DB8:0001:: - 2007:C21A:0DB8:0001::0007</t>
   </si>
   <si>
-    <t>20007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
-  </si>
-  <si>
     <t>2007:C21A:0DB8:0002::</t>
+  </si>
+  <si>
+    <t>2007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
   </si>
 </sst>
 </file>
@@ -817,7 +817,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1682,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="2">
         <v>126</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71236911-DF5E-4EB2-A4B1-C07A87DD1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35752-4D8F-4FE6-A3D0-64DFEDAEE135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="15420" yWindow="405" windowWidth="22860" windowHeight="20460" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>2007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
+  </si>
+  <si>
+    <t>area id</t>
   </si>
 </sst>
 </file>
@@ -814,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,7 +836,7 @@
     <col min="9" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +864,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +896,11 @@
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -919,8 +928,11 @@
       <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -948,8 +960,11 @@
       <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -977,8 +992,11 @@
       <c r="I5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1006,8 +1024,11 @@
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1035,8 +1056,11 @@
       <c r="I7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1064,8 +1088,11 @@
       <c r="I8" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1093,8 +1120,11 @@
       <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1122,8 +1152,11 @@
       <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1134,7 +1167,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1145,7 +1178,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1156,7 +1189,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1167,7 +1200,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1178,7 +1211,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1235,8 +1268,11 @@
       <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1264,8 +1300,11 @@
       <c r="I18" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1293,8 +1332,11 @@
       <c r="I19" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1322,8 +1364,11 @@
       <c r="I20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1351,8 +1396,11 @@
       <c r="I21" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -1380,8 +1428,11 @@
       <c r="I22" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1409,8 +1460,11 @@
       <c r="I23" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1438,8 +1492,11 @@
       <c r="I24" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1467,8 +1524,11 @@
       <c r="I25" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1496,8 +1556,11 @@
       <c r="I26" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1525,8 +1588,11 @@
       <c r="I27" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -1554,8 +1620,11 @@
       <c r="I28" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -1583,8 +1652,11 @@
       <c r="I29" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35752-4D8F-4FE6-A3D0-64DFEDAEE135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923715A9-B1C7-0C41-8740-1DB4528659FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="405" windowWidth="22860" windowHeight="20460" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -425,13 +425,52 @@
     <t>2007: C21A: 0DB8:0001:: - 2007:C21A:0DB8:0001::0007</t>
   </si>
   <si>
+    <t>20007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
+  </si>
+  <si>
     <t>2007:C21A:0DB8:0002::</t>
   </si>
   <si>
-    <t>2007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
-  </si>
-  <si>
-    <t>area id</t>
+    <t>router id</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+  </si>
+  <si>
+    <t>3.3.3.3</t>
+  </si>
+  <si>
+    <t>4.4.4.4</t>
+  </si>
+  <si>
+    <t>5.5.5.5</t>
+  </si>
+  <si>
+    <t>7.7.7.7</t>
+  </si>
+  <si>
+    <t>8.8.8.8</t>
+  </si>
+  <si>
+    <t>9.9.9.9</t>
+  </si>
+  <si>
+    <t>6.6.6.6</t>
+  </si>
+  <si>
+    <t>gulf</t>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uae </t>
+  </si>
+  <si>
+    <t>11.11.11.11</t>
   </si>
 </sst>
 </file>
@@ -817,26 +856,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="35.625" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +907,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -896,11 +935,11 @@
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -928,11 +967,11 @@
       <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -960,11 +999,11 @@
       <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -992,11 +1031,11 @@
       <c r="I5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1024,11 +1063,11 @@
       <c r="I6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1056,11 +1095,11 @@
       <c r="I7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1088,11 +1127,11 @@
       <c r="I8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1120,11 +1159,11 @@
       <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1152,11 +1191,11 @@
       <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1167,7 +1206,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1177,8 +1216,14 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1188,8 +1233,14 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1200,7 +1251,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1211,7 +1262,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1268,11 +1319,8 @@
       <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1300,11 +1348,8 @@
       <c r="I18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1332,11 +1377,8 @@
       <c r="I19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1364,11 +1406,8 @@
       <c r="I20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1396,11 +1435,8 @@
       <c r="I21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -1428,11 +1464,8 @@
       <c r="I22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1460,11 +1493,8 @@
       <c r="I23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1492,11 +1522,8 @@
       <c r="I24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1524,11 +1551,8 @@
       <c r="I25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1556,11 +1580,8 @@
       <c r="I26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1588,11 +1609,8 @@
       <c r="I27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -1620,11 +1638,8 @@
       <c r="I28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -1652,11 +1667,8 @@
       <c r="I29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1667,10 +1679,13 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1709,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1717,7 +1732,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
@@ -1740,7 +1755,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -1754,22 +1769,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F43" s="2">
         <v>126</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -1783,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -1792,7 +1807,7 @@
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -1801,7 +1816,7 @@
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -1810,7 +1825,7 @@
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -1819,7 +1834,7 @@
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -1828,7 +1843,7 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
   </sheetData>

--- a/topology-ips.xlsx
+++ b/topology-ips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunzalahhassan/Documents/GitHub/GSP-network-topology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunz\Documents\GitHub\GSP-network-topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923715A9-B1C7-0C41-8740-1DB4528659FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBDCCB1-32A9-4228-8A0B-69238B40FC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12630" windowHeight="21000" xr2:uid="{9177ED32-3246-234F-BC57-C215A5B34F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -425,9 +425,6 @@
     <t>2007: C21A: 0DB8:0001:: - 2007:C21A:0DB8:0001::0007</t>
   </si>
   <si>
-    <t>20007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
-  </si>
-  <si>
     <t>2007:C21A:0DB8:0002::</t>
   </si>
   <si>
@@ -471,6 +468,24 @@
   </si>
   <si>
     <t>11.11.11.11</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>12.12.12.12.</t>
+  </si>
+  <si>
+    <t>13.13.13.13</t>
+  </si>
+  <si>
+    <t>2007:C21A:0DB8:0002:: - 20007:C21A:0DB8:0002::0003</t>
+  </si>
+  <si>
+    <t>with vlsm ipv6</t>
   </si>
 </sst>
 </file>
@@ -858,24 +873,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D66668-2398-E943-AC0C-6229F0699039}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -936,10 +951,10 @@
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -968,10 +983,10 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1000,10 +1015,10 @@
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1032,10 +1047,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1064,10 +1079,10 @@
         <v>44</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1096,10 +1111,10 @@
         <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1128,10 +1143,10 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1160,10 +1175,10 @@
         <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1192,10 +1207,10 @@
         <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1206,7 +1221,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1217,13 +1232,13 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="M12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" t="s">
         <v>141</v>
       </c>
-      <c r="N12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1234,13 +1249,13 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="M13" t="s">
+        <v>142</v>
+      </c>
+      <c r="N13" t="s">
         <v>143</v>
       </c>
-      <c r="N13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1250,8 +1265,14 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1261,8 +1282,14 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1320,7 +1347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1349,7 +1376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1378,7 +1405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -1436,7 +1463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -1465,7 +1492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1494,7 +1521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +1550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1552,7 +1579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1581,7 +1608,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1610,7 +1637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -1639,7 +1666,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -1668,7 +1695,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1679,13 +1706,18 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1741,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
@@ -1732,7 +1764,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -1769,22 +1801,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="2">
         <v>126</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>114</v>
       </c>
@@ -1798,7 +1830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -1807,7 +1839,7 @@
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -1816,7 +1848,7 @@
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -1825,7 +1857,7 @@
       </c>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>124</v>
       </c>
@@ -1834,7 +1866,7 @@
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -1843,7 +1875,7 @@
       </c>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
